--- a/REVER_DailyTracker_20200919.xlsx
+++ b/REVER_DailyTracker_20200919.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\MVS\September\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3EDF73B-353E-4A0F-9F3D-FE002D6C679D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA60C8C6-1654-4E4A-8068-2A4DFE8D1468}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" activeTab="3" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -29,18 +29,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="170">
   <si>
     <t>Task</t>
   </si>
@@ -591,6 +585,12 @@
   <si>
     <t>1. Creation of datefile.txt  for inputing the date to the DRS-Daily, DRS-Monthly, Warranty_daily, GRS-Daily, GRS_details_daily and
 POC daily tasks has been completed and tested and running smoothly</t>
+  </si>
+  <si>
+    <t>HAYAAI-B2B</t>
+  </si>
+  <si>
+    <t>Search errors in Service Request and Jib correction</t>
   </si>
 </sst>
 </file>
@@ -1061,7 +1061,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G346"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A328" workbookViewId="0">
+    <sheetView topLeftCell="A328" workbookViewId="0">
       <selection activeCell="G346" sqref="G346"/>
     </sheetView>
   </sheetViews>
@@ -2542,8 +2542,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2583,9 +2583,15 @@
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
+      <c r="C2" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
